--- a/processed/37_merged_file.xlsx
+++ b/processed/37_merged_file.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +416,3471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BẢNG KÊ CHI TIẾT PHÁT TIỀN ĐƯỜNG,… CHO LÁI XE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BKS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chủ
+hàng</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Số cont</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hành trình</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Số tiền (1.000 đồng)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Chạy</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tuyến đường</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Đường</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Trừ
+Ba Hàng</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15C-12876</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Trương Văn Sỹ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MEDU6640380</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Kim Bảng, Hà Nam</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15C-13036</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Anh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TGBU2554012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Diễn Châu, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15C-13568</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Trần Quốc Đại</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MSDU1552128</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hoài Đức, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15C-13616</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Trương Văn Huy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MSMU2116716</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hoài Đức, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15C-25418</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ngụy Văn Toàn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>120</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15C-15237</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lưu Xuân Thành</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>120</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15C-03426</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Quyết</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15C-11486</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bùi Đức Thành</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hải Hậu, Nam Định</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2550</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15C-03470</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ngô Quang Hưng</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Quỳnh Lưu, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15C-11200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Phạm Văn Thịnh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Quỳnh Lưu, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5200</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15C-13840</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Trương Văn Cao</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Quỳnh Lưu, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15C-13959</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Phạm Viết Thành</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Quỳnh Lưu, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15C-13840</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Trương Văn Cao</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15C-15237</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Lưu Xuân Thành</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15C-13840</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trương Văn Cao</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15C-13959</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Phạm Viết Thành</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15C-12876</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trương Văn Sỹ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15C-13840</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trương Văn Cao</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15C-15237</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lưu Xuân Thành</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15C-13368</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Vũ Đức Chiến</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15C-13959</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Phạm Viết Thành</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15C-13616</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trương Văn Huy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15C-11200</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Phạm Văn Thịnh</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15C-12876</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Trương Văn Sỹ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15C-15237</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Lưu Xuân Thành</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15C-25418</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ngụy Văn Toàn</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15C-12832</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Trần Văn Hiển</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15C-11856</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Đinh Minh Dũng</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15C-13368</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Vũ Đức Chiến</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15C-12812</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mai Văn Sơn</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15C-10812</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Lại Văn Ngân</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15C-13958</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Vũ Đình Hà</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15C-13969</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Lê Anh Tân</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15C-12832</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Trần Văn Hiển</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15C-11856</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Đinh Minh Dũng</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phú Lân</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải CHP-HS</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" t="n">
+        <v>35650</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>360</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35290</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lái xe ký nhận tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>……………………………………..</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BẢNG KÊ CHI TIẾT PHÁT TIỀN ĐƯỜNG,… CHO LÁI XE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BKS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chủ
+hàng</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Số cont</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hành trình</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Số tiền (1.000 đồng)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Chạy</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tuyến đường</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Đường</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Trừ
+Ba Hàng</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>15C-12876</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Trương Văn Sỹ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Lương Tài, Bắc Ninh</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K47" t="n">
+        <v>120</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>15C-11200</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Phạm Văn Thịnh</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Lương Tài, Bắc Ninh</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K48" t="n">
+        <v>120</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>15C-13958</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Vũ Đình Hà</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hải Hậu, Nam Định</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2550</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>15C-13616</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Trương Văn Huy</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Tuấn Phúc</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TACU4010765</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Chuyển tải khu vực CĐV-HS</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>150</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>15C-15237</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lưu Xuân Thành</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MSCU3690499</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Nam Đàn, Nghệ An</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15C-11732</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bùi Quang Duy</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MSMU2659288</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Ninh Giang, Hải Dương</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>700</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>15C-25418</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ngụy Văn Toàn</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MSNU1482123</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hoài Đức, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15C-12832</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Trần Văn Hiển</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Vạn An</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MSMU1737215</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hậu Lộc, Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>15C-12812</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mai Văn Sơn</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Chị Vân chủ lẻ</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MSDU 7780486</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Kim Thành, Hải Dương</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>700</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>15C-13568</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Trần Quốc Đại</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Chị Vân chủ lẻ</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MSMU 4493719</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Kim Thành, Hải Dương</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>700</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>15C-03470</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ngô Quang Hưng</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Phương Nam</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>15C-13969</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Lê Anh Tân</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Đa Liên</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15C-03426</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Quyết</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Đa Liên</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K59" t="n">
+        <v>20</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15C-13616</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Trương Văn Huy</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Đa Liên</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>15C-13368</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vũ Đức Chiến</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Đa Liên</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K61" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15C-11856</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Đinh Minh Dũng</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Đại Phát</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K62" t="n">
+        <v>20</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>45503</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>15C-11486</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Bùi Đức Thành</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Hoàng Minh</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>TGHU 5219004</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thanh Liêm, Hà Nam</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="n">
+        <v>22500</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>360</v>
+      </c>
+      <c r="L64" t="n">
+        <v>22140</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Lái xe ký nhận tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>……………………………………..</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BẢNG KÊ CHI TIẾT PHÁT TIỀN ĐƯỜNG,… CHO LÁI XE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BKS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tên lái xe</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Chủ
+hàng</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Số cont</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hành trình</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Số tiền (1.000 đồng)</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Chạy</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tuyến đường</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Đường</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Trừ
+Ba Hàng</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>15C-13958</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Vũ Đình Hà</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BMOU2074956</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Ân Thi, Hưng Yên</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>750</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>15C-11856</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Đinh Minh Dũng</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MEDU5215880</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Thanh Lãng, Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>15C-25418</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ngụy Văn Toàn</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MEDU6401430</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>15C-13969</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Lê Anh Tân</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MSDU1922290</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Thường Tín, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>15C-03470</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ngô Quang Hưng</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MSMU1404174</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;TP. Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>15C-03426</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Phạm Hoàng Quyết</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MSDU1570100</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Thạch Thất, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>15C-13568</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Trần Quốc Đại</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>HDD</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FTAU1339431</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>15C-11732</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Bùi Quang Duy</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Vạn An</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MSDU2839956</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hoài Đức, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>15C-12812</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Mai Văn Sơn</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Văn Lâm (có phí), Hưng Yên</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K80" t="n">
+        <v>120</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15C-12832</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Trần Văn Hiển</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Văn Lâm (có phí), Hưng Yên</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K81" t="n">
+        <v>120</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>15C-13036</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Anh</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Văn Lâm (có phí), Hưng Yên</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K82" t="n">
+        <v>120</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>15C-13368</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Vũ Đức Chiến</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Phú Xuyên, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K83" t="n">
+        <v>120</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>15C-13959</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Phạm Viết Thành</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Phú Xuyên, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K84" t="n">
+        <v>120</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>15C-11856</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Đinh Minh Dũng</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>120</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>15C-10812</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lại Văn Ngân</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Gỗ rời</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;Hà Đông, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>120</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>15C-13616</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Trương Văn Huy</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MEDU6982103</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;TP. Ninh Bình</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>15C-11200</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Phạm Văn Thịnh</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Đại Nam</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>MSMU1143553</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Mảng gỗ</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>DKG&lt;-&gt;TP. Ninh Bình</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15C-13840</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Trương Văn Cao</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hoàng Minh</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CBHU 6358945</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thanh Liêm, Hà Nam</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15C-13036</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Anh</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hoàng Minh</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>WSDU 4992331</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Mảng ngoài</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>DKS&lt;-&gt;Thanh Liêm, Hà Nam</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="I91" t="n">
+        <v>27600</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>840</v>
+      </c>
+      <c r="L91" t="n">
+        <v>26760</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Lái xe ký nhận tiền</t>
+        </is>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95">
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>……………………………………..</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>